--- a/inputs/try_100_for_all_topologies.xlsx
+++ b/inputs/try_100_for_all_topologies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzasenol/Desktop/Norm-Emergence/MAS/norm-changes-emergence/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7784DD04-750D-264D-ACE0-4C2DAE46D955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2142680-D9E7-0241-8737-87D93E1ABA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="16120" xr2:uid="{18B38A3F-8D67-C247-8082-95AAD7FDB469}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t>Agent_Number</t>
   </si>
@@ -53,18 +53,12 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>small_world</t>
-  </si>
-  <si>
     <t>0.15</t>
   </si>
   <si>
     <t>0.3</t>
   </si>
   <si>
-    <t>[0, 0, 1]</t>
-  </si>
-  <si>
     <t>0.1</t>
   </si>
   <si>
@@ -75,9 +69,6 @@
   </si>
   <si>
     <t>random</t>
-  </si>
-  <si>
-    <t>scale_free</t>
   </si>
   <si>
     <t>Topology</t>
@@ -472,14 +463,14 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -499,483 +490,227 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>100</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>100</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1">
-        <v>100</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1">
-        <v>100</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1">
-        <v>100</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1">
-        <v>100</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1">
-        <v>100</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1">
-        <v>100</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1">
-        <v>100</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1">
-        <v>100</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1">
-        <v>8</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1">
-        <v>100</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="1">
-        <v>100</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
